--- a/biology/Botanique/Rhizophagus_irregularis/Rhizophagus_irregularis.xlsx
+++ b/biology/Botanique/Rhizophagus_irregularis/Rhizophagus_irregularis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Rhizophagus irregularis (synonyme Glomus irregulare, précédemment connu comme Glomus intraradices) est un champignon mycorhizien arbusculaire appartenant au genre  Rhizophagus. Il est utilisé comme un inoculât du sol en agriculture et en horticulture.
 </t>
@@ -511,11 +523,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Ce champignon possède des arbuscules et des vésicules. 
-Identification
-Reproduction</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce champignon possède des arbuscules et des vésicules. 
+</t>
         </is>
       </c>
     </row>
@@ -544,6 +557,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -569,10 +584,12 @@
           <t>Pertinence</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le génome de R. irregularis a été séquencé en 2013[2],[3].
-Le basionyme est Glomus irregulare Blaszk., Wubet, Renker &amp; Buscot, 2009[4]
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le génome de R. irregularis a été séquencé en 2013,.
+Le basionyme est Glomus irregulare Blaszk., Wubet, Renker &amp; Buscot, 2009
 </t>
         </is>
       </c>
@@ -601,7 +618,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>(en) Cet article est partiellement ou en totalité issu de l’article de Wikipédia en anglais intitulé « Rhizophagus irregularis » (voir la liste des auteurs).</t>
         </is>
